--- a/lookup.xlsx
+++ b/lookup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecbjb\Desktop\WORK\CODE\Python\DataProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecbjb\Desktop\WORK\CODE\Python\DataProject\TrainingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="183">
   <si>
     <t>acoustic-backscatter-winds</t>
   </si>
@@ -316,9 +316,6 @@
     <t>ncas-hvps3-1</t>
   </si>
   <si>
-    <t>under development</t>
-  </si>
-  <si>
     <t>ncas-radar-wind-profiler-1</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>aerosol-backscatter, cloud-base, cloud-coverage</t>
   </si>
   <si>
-    <t>aerosol-size-distribution, liquid-water-content</t>
-  </si>
-  <si>
     <t>radiation, soil</t>
   </si>
   <si>
@@ -578,6 +572,9 @@
   </si>
   <si>
     <t>o2n2-concentration-ratio, o2-concentration</t>
+  </si>
+  <si>
+    <t>particle-size-distribution</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1089,8 @@
   </sheetPr>
   <dimension ref="A1:C1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1106,10 +1103,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="26" customFormat="1" ht="13.2">
@@ -1123,7 +1120,7 @@
     </row>
     <row r="3" spans="1:3" ht="13.2">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="4" spans="1:3" ht="13.2">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -1139,7 +1136,7 @@
     </row>
     <row r="5" spans="1:3" ht="13.2">
       <c r="A5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="6" spans="1:3" ht="13.2">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="7" spans="1:3" ht="13.2">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1163,7 +1160,7 @@
     </row>
     <row r="8" spans="1:3" ht="13.2">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="9" spans="1:3" ht="13.2">
       <c r="A9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -1179,7 +1176,7 @@
     </row>
     <row r="10" spans="1:3" ht="13.2">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -1235,7 +1232,7 @@
     </row>
     <row r="17" spans="1:2" ht="13.2">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>20</v>
@@ -1243,7 +1240,7 @@
     </row>
     <row r="18" spans="1:2" ht="13.2">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="19" spans="1:2" ht="13.2">
       <c r="A19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
@@ -1259,7 +1256,7 @@
     </row>
     <row r="20" spans="1:2" ht="13.2">
       <c r="A20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="21" spans="1:2" ht="13.2">
       <c r="A21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>20</v>
@@ -1275,7 +1272,7 @@
     </row>
     <row r="22" spans="1:2" ht="13.2">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
@@ -1283,7 +1280,7 @@
     </row>
     <row r="23" spans="1:2" ht="13.2">
       <c r="A23" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>20</v>
@@ -1291,7 +1288,7 @@
     </row>
     <row r="24" spans="1:2" ht="13.2">
       <c r="A24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>20</v>
@@ -1301,8 +1298,8 @@
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>170</v>
+      <c r="B25" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.2">
@@ -1310,7 +1307,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.2">
@@ -1318,7 +1315,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.2">
@@ -1326,7 +1323,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.2">
@@ -1334,7 +1331,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.2">
@@ -1342,7 +1339,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.2">
@@ -1350,7 +1347,7 @@
         <v>47</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.2">
@@ -1358,7 +1355,7 @@
         <v>48</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.2">
@@ -1542,7 +1539,7 @@
         <v>82</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13.2">
@@ -1550,7 +1547,7 @@
         <v>83</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13.2">
@@ -1563,7 +1560,7 @@
     </row>
     <row r="58" spans="1:2" ht="13.2">
       <c r="A58" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>14</v>
@@ -1582,7 +1579,7 @@
         <v>87</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13.2">
@@ -1590,7 +1587,7 @@
         <v>88</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.2">
@@ -1619,10 +1616,10 @@
     </row>
     <row r="65" spans="1:2" ht="13.2">
       <c r="A65" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.2">
@@ -1643,7 +1640,7 @@
     </row>
     <row r="68" spans="1:2" ht="13.2">
       <c r="A68" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>14</v>
@@ -1654,12 +1651,12 @@
         <v>95</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.2">
       <c r="A70" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>11</v>
@@ -1667,7 +1664,7 @@
     </row>
     <row r="71" spans="1:2" ht="13.2">
       <c r="A71" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>11</v>
@@ -1675,39 +1672,39 @@
     </row>
     <row r="72" spans="1:2" ht="13.2">
       <c r="A72" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13.2">
       <c r="A73" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13.2">
       <c r="A74" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13.2">
       <c r="A75" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.2">
       <c r="A76" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>13</v>
@@ -1715,15 +1712,15 @@
     </row>
     <row r="77" spans="1:2" ht="13.2">
       <c r="A77" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13.2">
       <c r="A78" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>22</v>
@@ -1731,7 +1728,7 @@
     </row>
     <row r="79" spans="1:2" ht="13.2">
       <c r="A79" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>14</v>
@@ -1739,18 +1736,18 @@
     </row>
     <row r="80" spans="1:2" ht="13.2">
       <c r="A80" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13.2">
       <c r="A81" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13.2">
@@ -1771,7 +1768,7 @@
     </row>
     <row r="84" spans="1:2" ht="13.2">
       <c r="A84" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>17</v>
@@ -1779,7 +1776,7 @@
     </row>
     <row r="85" spans="1:2" ht="13.2">
       <c r="A85" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>20</v>
@@ -1787,7 +1784,7 @@
     </row>
     <row r="86" spans="1:2" ht="13.2">
       <c r="A86" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>27</v>
@@ -1795,7 +1792,7 @@
     </row>
     <row r="87" spans="1:2" ht="13.2">
       <c r="A87" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>22</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="88" spans="1:2" ht="13.2">
       <c r="A88" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>21</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="89" spans="1:2" ht="13.2">
       <c r="A89" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>21</v>
@@ -1819,7 +1816,7 @@
     </row>
     <row r="90" spans="1:2" ht="13.2">
       <c r="A90" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>21</v>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="91" spans="1:2" ht="13.2">
       <c r="A91" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>21</v>
@@ -1835,7 +1832,7 @@
     </row>
     <row r="92" spans="1:2" ht="13.2">
       <c r="A92" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>25</v>
@@ -1843,7 +1840,7 @@
     </row>
     <row r="93" spans="1:2" ht="13.2">
       <c r="A93" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>25</v>
@@ -1851,7 +1848,7 @@
     </row>
     <row r="94" spans="1:2" ht="13.2">
       <c r="A94" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>80</v>
@@ -1859,7 +1856,7 @@
     </row>
     <row r="95" spans="1:2" ht="13.2">
       <c r="A95" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>80</v>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="96" spans="1:2" ht="13.2">
       <c r="A96" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>80</v>
@@ -1875,7 +1872,7 @@
     </row>
     <row r="97" spans="1:2" ht="13.2">
       <c r="A97" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>80</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="98" spans="1:2" ht="13.2">
       <c r="A98" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>80</v>
@@ -1891,7 +1888,7 @@
     </row>
     <row r="99" spans="1:2" ht="13.2">
       <c r="A99" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>80</v>
@@ -1899,7 +1896,7 @@
     </row>
     <row r="100" spans="1:2" ht="13.2">
       <c r="A100" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>80</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="101" spans="1:2" ht="13.2">
       <c r="A101" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>25</v>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="102" spans="1:2" ht="13.2">
       <c r="A102" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>25</v>
@@ -1926,15 +1923,15 @@
         <v>61</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="13.2">
       <c r="A104" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="13.2">
@@ -1942,28 +1939,28 @@
         <v>94</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="13.2">
       <c r="A106" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="13.2">
       <c r="A107" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="13.2">
       <c r="A108" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>5</v>
@@ -1971,7 +1968,7 @@
     </row>
     <row r="109" spans="1:2" ht="13.2">
       <c r="A109" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>5</v>
@@ -1979,7 +1976,7 @@
     </row>
     <row r="110" spans="1:2" ht="13.2">
       <c r="A110" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>5</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="111" spans="1:2" ht="13.2">
       <c r="A111" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>5</v>
@@ -1995,7 +1992,7 @@
     </row>
     <row r="112" spans="1:2" ht="13.2">
       <c r="A112" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>5</v>
@@ -2003,7 +2000,7 @@
     </row>
     <row r="113" spans="1:2" ht="13.2">
       <c r="A113" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>0</v>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="114" spans="1:2" ht="13.2">
       <c r="A114" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>0</v>
@@ -2019,7 +2016,7 @@
     </row>
     <row r="115" spans="1:2" ht="13.2">
       <c r="A115" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>0</v>
@@ -2059,7 +2056,7 @@
     </row>
     <row r="120" spans="1:2" ht="13.2">
       <c r="A120" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>24</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="121" spans="1:2" ht="13.2">
       <c r="A121" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>24</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="122" spans="1:2" ht="13.2">
       <c r="A122" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>24</v>
@@ -2083,7 +2080,7 @@
     </row>
     <row r="123" spans="1:2" ht="13.2">
       <c r="A123" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>4</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="124" spans="1:2" ht="13.2">
       <c r="A124" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>4</v>
@@ -2099,7 +2096,7 @@
     </row>
     <row r="125" spans="1:2" ht="13.2">
       <c r="A125" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>4</v>
@@ -2107,7 +2104,7 @@
     </row>
     <row r="126" spans="1:2" ht="13.2">
       <c r="A126" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>4</v>
@@ -2115,7 +2112,7 @@
     </row>
     <row r="127" spans="1:2" ht="13.2">
       <c r="A127" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>14</v>
@@ -2123,7 +2120,7 @@
     </row>
     <row r="128" spans="1:2" ht="13.2">
       <c r="A128" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>14</v>
@@ -2131,7 +2128,7 @@
     </row>
     <row r="129" spans="1:2" ht="13.2">
       <c r="A129" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>20</v>
@@ -2139,7 +2136,7 @@
     </row>
     <row r="130" spans="1:2" ht="13.2">
       <c r="A130" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>26</v>
@@ -2190,7 +2187,7 @@
         <v>30</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="13.2">
@@ -2214,7 +2211,7 @@
         <v>41</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="13.2">
